--- a/data/evaporation_test/evaportation_test_latest.xlsx
+++ b/data/evaporation_test/evaportation_test_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/study_n_work/7_PhD/projects/PatchSizePilot/evaporation_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ema/github/PatchSizePilot/data/evaporation_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CCC34A-E6D2-1247-82CD-231DB7608F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F3F28-977C-6548-BA7F-E485C55ECE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{37B728BC-341C-BF40-A4AE-3508D7FB1283}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" xr2:uid="{37B728BC-341C-BF40-A4AE-3508D7FB1283}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,25 +47,25 @@
     <t>deionised water</t>
   </si>
   <si>
-    <t>Water pipetted into tubes (ml)</t>
+    <t>rack_position</t>
   </si>
   <si>
-    <t>Falcon tube (g)</t>
+    <t>water_pipetted_into_tubes (ml)</t>
   </si>
   <si>
-    <t>Falcon tube and water before evaporation (g)</t>
+    <t>falcon_tube_weight</t>
   </si>
   <si>
-    <t>Water before evaporation (g)</t>
+    <t>weight_falcon_tube_n_water</t>
   </si>
   <si>
-    <t>Water after evaporation (g)</t>
+    <t>weight_water_before_evaporation</t>
   </si>
   <si>
-    <t>Water evaporated (g)</t>
+    <t>weight_water_after_evaporation</t>
   </si>
   <si>
-    <t>Rack position</t>
+    <t>weight_water_evaporated</t>
   </si>
 </sst>
 </file>
@@ -3028,8 +3028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1990C06-9942-0A4B-BB16-2A81F861C66C}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3045,30 +3045,30 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
